--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.74529999999999</v>
+        <v>-11.4253</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.10279999999999</v>
+        <v>-12.34770000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.772399999999998</v>
+        <v>5.579099999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.47240000000001</v>
+        <v>-22.47590000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.44559999999998</v>
+        <v>-21.2311</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.091800000000001</v>
+        <v>-7.856899999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.02709999999999</v>
+        <v>-11.6147</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.61470000000002</v>
+        <v>-21.59010000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.471999999999996</v>
+        <v>-7.317299999999989</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.056199999999999</v>
+        <v>-9.224599999999995</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.503399999999997</v>
+        <v>5.888000000000002</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.26399999999999</v>
+        <v>-12.29589999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.784200000000003</v>
+        <v>-7.658000000000004</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.972199999999996</v>
+        <v>4.796399999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.40580000000001</v>
+        <v>16.50200000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,19 +734,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.734</v>
+        <v>-21.82469999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>6.016999999999992</v>
+        <v>5.981599999999995</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.6993</v>
+        <v>-11.4896</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.24100000000002</v>
+        <v>18.36460000000003</v>
       </c>
     </row>
     <row r="19">
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.93050000000001</v>
+        <v>-11.91390000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.633299999999997</v>
+        <v>8.660200000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -791,13 +791,13 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.87760000000001</v>
+        <v>-12.805</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.63880000000002</v>
+        <v>16.68700000000002</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.12840000000001</v>
+        <v>17.2312</v>
       </c>
     </row>
     <row r="23">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.32919999999997</v>
+        <v>-21.4696</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.289</v>
+        <v>16.19799999999999</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.30239999999999</v>
+        <v>-12.28689999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.85369999999998</v>
+        <v>16.81659999999999</v>
       </c>
     </row>
     <row r="28">
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.641700000000003</v>
+        <v>4.920200000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.503299999999999</v>
+        <v>-7.430899999999993</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.599399999999999</v>
+        <v>5.525400000000003</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.605199999999999</v>
+        <v>4.124499999999997</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.3462</v>
+        <v>-13.2457</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.931999999999995</v>
+        <v>-8.773799999999994</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.317200000000005</v>
+        <v>8.241300000000008</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.377999999999997</v>
+        <v>-8.394999999999998</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-18.84009999999999</v>
+        <v>-19.3021</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.4946</v>
+        <v>-12.67959999999999</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.1819</v>
+        <v>16.2189</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.140799999999999</v>
+        <v>9.226199999999997</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.97</v>
+        <v>-12.12380000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.122199999999999</v>
+        <v>-8.126799999999998</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,16 +1179,16 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.245600000000003</v>
+        <v>5.110900000000004</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.6681</v>
+        <v>-12.92859999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.80439999999998</v>
+        <v>16.6186</v>
       </c>
     </row>
     <row r="45">
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.1625</v>
+        <v>-12.2826</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.374299999999996</v>
+        <v>-7.6934</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.313400000000003</v>
+        <v>-8.407400000000003</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.947599999999997</v>
+        <v>5.406499999999998</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.201499999999992</v>
+        <v>-8.067699999999993</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.751199999999995</v>
+        <v>-8.606599999999997</v>
       </c>
       <c r="E51" t="n">
-        <v>16.5385</v>
+        <v>16.5408</v>
       </c>
     </row>
     <row r="52">
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.807199999999999</v>
+        <v>4.7938</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.4812</v>
+        <v>16.55000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.30949999999999</v>
+        <v>-22.56080000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.64469999999999</v>
+        <v>-13.17379999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.445199999999994</v>
+        <v>-8.295000000000002</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.75849999999999</v>
+        <v>16.80599999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1420,13 +1420,13 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.15919999999999</v>
+        <v>-13.5976</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.8374</v>
+        <v>16.51040000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.83940000000001</v>
+        <v>15.80470000000002</v>
       </c>
     </row>
     <row r="61">
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.880599999999998</v>
+        <v>-8.043499999999996</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.10260000000002</v>
+        <v>17.72920000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.2795</v>
+        <v>-12.5445</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.52840000000002</v>
+        <v>-21.48170000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.441999999999998</v>
+        <v>4.423499999999997</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.255299999999997</v>
+        <v>-7.244099999999992</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.703299999999997</v>
+        <v>-7.595899999999988</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.28610000000001</v>
+        <v>-12.0688</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.097999999999996</v>
+        <v>6.437599999999994</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.17729999999998</v>
+        <v>-20.00769999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1749,12 +1749,12 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>17.94150000000002</v>
+        <v>18.10590000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.04169999999997</v>
+        <v>-20.02679999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.92519999999998</v>
+        <v>-19.88749999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.659599999999999</v>
+        <v>-6.480399999999999</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.73319999999998</v>
+        <v>-19.74119999999998</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.61840000000002</v>
+        <v>-21.6187</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.403899999999997</v>
+        <v>-7.634299999999993</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.1374</v>
+        <v>-22.16890000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1851,12 +1851,12 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.7479</v>
+        <v>16.899</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.98070000000002</v>
+        <v>-21.99910000000001</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.0749</v>
+        <v>15.83769999999999</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.6491</v>
+        <v>16.73280000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.666499999999997</v>
+        <v>4.179099999999998</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.714199999999996</v>
+        <v>5.083799999999997</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.7825</v>
+        <v>-12.7035</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.687399999999998</v>
+        <v>5.589099999999995</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.1787</v>
+        <v>-10.9871</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.567299999999999</v>
+        <v>-6.473099999999996</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.20580000000001</v>
+        <v>-10.05070000000001</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.4478</v>
+        <v>-12.4294</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.878000000000003</v>
+        <v>5.807099999999999</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.3999</v>
+        <v>16.40109999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.059999999999998</v>
+        <v>5.167599999999998</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.19179999999999</v>
+        <v>16.02889999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2145,13 +2145,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.28759999999998</v>
+        <v>-21.20119999999998</v>
       </c>
       <c r="B101" t="n">
-        <v>5.8393</v>
+        <v>5.785499999999998</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.22279999999999</v>
+        <v>-12.093</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.36359999999999</v>
+        <v>-21.21919999999999</v>
       </c>
       <c r="B102" t="n">
-        <v>5.809200000000001</v>
+        <v>5.4486</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
